--- a/evaluations/promptfoo/ambiguity_search/20240925-ppl_pro.xlsx
+++ b/evaluations/promptfoo/ambiguity_search/20240925-ppl_pro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\github\ASEED\evaluations\promptfoo\ambiguity_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17F5DE7-B7F2-44C4-94E9-4670A1E12C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7FC351-50E9-40A5-8BAD-2304A36F89D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Google Ranking API 1美元1000次</t>
-  </si>
-  <si>
-    <t>Knowledge Bases for Amazon Bedrock的自動數據同步功能是Amazon Bedrock的一項功能，它用於自動保持用戶在查詢時使用的知識庫處於最新狀態。當用戶上傳數據源以建立知識庫時，該數據源將定期自動同步，使知識庫反映最新信息。這樣一來，用戶就可以始終使用最新信息來增強根據模型的響應生成。</t>
   </si>
   <si>
     <t>融资120万美元</t>
@@ -415,6 +412,16 @@
 Always use a custom model name to avoid interception by Cursor.
 Ensure that all configurations are correctly set to avoid any connection issues.
 By following these steps, you can successfully configure and use the Claude 3.5 Sonnet model in Cursor via One API.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Felo.ai 的用户满意度总体上是非常高的。以下是一些关键点：
+高准确度和实用性：用户对 Felo.ai 的搜索结果准确性和实用性表示满意，认为其在深度研究和数据查找方面表现出色。
+多语言支持：Felo.ai 支持多种语言，包括英语、简体中文、繁体中文、日语、韩语、法语、西班牙语、德语、俄语、意大利语、印尼语、泰语和捷克语等，这有助于用户突破语言障碍，更便捷地获取全球信息。
+实时新闻搜索功能：用户对 Felo.ai 的实时新闻搜索功能表示认可，认为其能够快速回答迫切需要了解的问题。
+用户界面和操作简便：Felo.ai 的用户界面简洁，操作步骤简单，适合各种场景下的跨语言交流。
+免费使用：用户对 Felo.ai 的免费使用政策表示赞赏，认为这使得其服务更加亲民。
+此外，Felo.ai 的 AI 驱动搜索技术在搜索准确性、用户体验、转化率和客户满意度方面都有显著改善。这些因素共同提升了用户对 Felo.ai 的满意度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00D6B9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,16 +525,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -869,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -899,100 +906,100 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1000,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1014,13 +1021,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1028,27 +1035,27 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1056,13 +1063,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1070,41 +1077,41 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1112,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1126,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1140,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1154,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1168,22 +1175,22 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6">
         <v>0.7</v>
       </c>
       <c r="E23" t="s">
